--- a/liensMagasin-PC-CLO-fullweb.xlsx
+++ b/liensMagasin-PC-CLO-fullweb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44750798-A559-474E-8517-AD7AA84FD1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54FA30F-B667-4130-953D-9114033726DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{62F9DCE4-1250-4EB8-A581-12EC70D09AF5}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,6 +558,9 @@
       <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -644,9 +647,6 @@
       </c>
       <c r="D9" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">

--- a/liensMagasin-PC-CLO-fullweb.xlsx
+++ b/liensMagasin-PC-CLO-fullweb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54FA30F-B667-4130-953D-9114033726DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6900C4-A968-4157-BBD3-4110F464DCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{62F9DCE4-1250-4EB8-A581-12EC70D09AF5}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,22 +535,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
@@ -611,14 +606,12 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -626,13 +619,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -640,20 +633,28 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -681,7 +682,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" xr:uid="{9E663AEF-869B-424B-959C-D5E59C479146}"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{72CBD942-C40B-4415-8B27-DC60F01EFF2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/liensMagasin-PC-CLO-fullweb.xlsx
+++ b/liensMagasin-PC-CLO-fullweb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6900C4-A968-4157-BBD3-4110F464DCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1C1596-EBCA-494D-80AA-0734F212E00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{62F9DCE4-1250-4EB8-A581-12EC70D09AF5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Magasin PC CLO/fullweb</t>
   </si>
@@ -523,7 +523,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,6 +655,9 @@
       <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
